--- a/Turma Maio 2017/Aula 7/Projeto Controle Financeiro Parte 2.xlsx
+++ b/Turma Maio 2017/Aula 7/Projeto Controle Financeiro Parte 2.xlsx
@@ -4,12 +4,14 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18067"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11370"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7545" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Dados" sheetId="1" r:id="rId1"/>
-    <sheet name="Planilha1" sheetId="3" r:id="rId2"/>
-    <sheet name="PAINEL PRINCIPAL" sheetId="2" r:id="rId3"/>
+    <sheet name="PAINEL PRINCIPAL" sheetId="2" r:id="rId1"/>
+    <sheet name="Dados" sheetId="1" r:id="rId2"/>
+    <sheet name="Contas a Receber" sheetId="4" r:id="rId3"/>
+    <sheet name="Contas a Pagar" sheetId="5" r:id="rId4"/>
+    <sheet name="GRÁFICOS" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -21,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="65">
   <si>
     <t>1 - RECEITAS</t>
   </si>
@@ -90,13 +92,139 @@
   </si>
   <si>
     <t>2.07 - ENERGIA ELÉTRICA</t>
+  </si>
+  <si>
+    <t>Banco</t>
+  </si>
+  <si>
+    <t>Forma Pag/Rec</t>
+  </si>
+  <si>
+    <t>DINHEIRO</t>
+  </si>
+  <si>
+    <t>CHEQUE</t>
+  </si>
+  <si>
+    <t>CARTÃO CRÉDITO</t>
+  </si>
+  <si>
+    <t>CARTÃO DEBITO</t>
+  </si>
+  <si>
+    <t>DEPOSITO BANCÁRIO</t>
+  </si>
+  <si>
+    <t>Vencimento</t>
+  </si>
+  <si>
+    <t>Documento</t>
+  </si>
+  <si>
+    <t>Cliente</t>
+  </si>
+  <si>
+    <t>Plano de Contas</t>
+  </si>
+  <si>
+    <t>Descrição da Conta a Receber</t>
+  </si>
+  <si>
+    <t>Valor</t>
+  </si>
+  <si>
+    <t>Recebida? (S)</t>
+  </si>
+  <si>
+    <t>Origem Rec.</t>
+  </si>
+  <si>
+    <t>Data Recebimento</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Fornecedor</t>
+  </si>
+  <si>
+    <t>Descrição da Conta a Pagar</t>
+  </si>
+  <si>
+    <t>Paga? (S)</t>
+  </si>
+  <si>
+    <t>Origem Pag.</t>
+  </si>
+  <si>
+    <t>Data Pagamento</t>
+  </si>
+  <si>
+    <t>2 - DADOS</t>
+  </si>
+  <si>
+    <t>1 - PAINEL PRINCIPAL</t>
+  </si>
+  <si>
+    <t>3 - CONTAS A RECEBER</t>
+  </si>
+  <si>
+    <t>4 - CONTAS A PAGAR</t>
+  </si>
+  <si>
+    <t>Tipo</t>
+  </si>
+  <si>
+    <t>Veículos</t>
+  </si>
+  <si>
+    <t>PALIO</t>
+  </si>
+  <si>
+    <t>MOBI</t>
+  </si>
+  <si>
+    <t>ONIX</t>
+  </si>
+  <si>
+    <t>UP</t>
+  </si>
+  <si>
+    <t>CELTA</t>
+  </si>
+  <si>
+    <t>SANDERO</t>
+  </si>
+  <si>
+    <t>VOYAGE</t>
+  </si>
+  <si>
+    <t>LANCER</t>
+  </si>
+  <si>
+    <t>BRASIL</t>
+  </si>
+  <si>
+    <t>ITAU</t>
+  </si>
+  <si>
+    <t>SANTADER</t>
+  </si>
+  <si>
+    <t>BRADESCO</t>
+  </si>
+  <si>
+    <t>CAIXINHA</t>
+  </si>
+  <si>
+    <t>5 - GRÁFICOS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -105,15 +233,26 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -126,10 +265,57 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF15467A"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDBE5F1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="0"/>
+      </left>
+      <right style="medium">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="0"/>
+      </left>
+      <right style="medium">
+        <color theme="0"/>
+      </right>
+      <top style="medium">
+        <color theme="0"/>
+      </top>
+      <bottom style="medium">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="0"/>
+      </left>
       <right/>
       <top/>
       <bottom/>
@@ -139,10 +325,26 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -151,7 +353,14 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF15467A"/>
+      <color rgb="FFDBE5F1"/>
+      <color rgb="FF3366FF"/>
+      <color rgb="FF66CCFF"/>
+      <color rgb="FF0099FF"/>
+      <color rgb="FF1D0000"/>
       <color rgb="FF4F81BD"/>
+      <color rgb="FFFF0000"/>
     </mruColors>
   </colors>
   <extLst>
@@ -171,22 +380,21 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>8659</xdr:rowOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>398318</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>91281</xdr:rowOff>
+      <xdr:colOff>9900</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>125099</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="Retângulo 3">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        <xdr:cNvPr id="3" name="Retângulo 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BBB51086-8B97-4D18-BA8C-874C35CA5488}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F43E693-4F00-4905-A900-A344D03D2774}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -194,12 +402,15 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="199159"/>
-          <a:ext cx="826943" cy="463622"/>
+          <a:off x="0" y="638174"/>
+          <a:ext cx="1724400" cy="477525"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="DBE5F1"/>
+        </a:solidFill>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="0">
@@ -219,16 +430,316 @@
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="ctr"/>
+          <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="pt-BR" sz="1100"/>
-            <a:t>PAINEL</a:t>
+            <a:rPr lang="pt-BR" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="15467A"/>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>1 - PAINEL</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="pt-BR" sz="1100" baseline="0"/>
+            <a:rPr lang="pt-BR" sz="1100" b="1" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="15467A"/>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
             <a:t> PRINCIPAL</a:t>
           </a:r>
-          <a:endParaRPr lang="pt-BR" sz="1100"/>
+          <a:endParaRPr lang="pt-BR" sz="1100" b="1">
+            <a:solidFill>
+              <a:srgbClr val="15467A"/>
+            </a:solidFill>
+            <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>123822</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9900</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>58422</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Retângulo 3">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FCCFC513-F80F-49A7-B013-959DCA3FD042}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="1114422"/>
+          <a:ext cx="1724400" cy="477525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100" b="1">
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>2 - DADOS</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>61909</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9900</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>177484</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Retângulo 4">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84F0CBDB-5E99-4CBD-B506-8758F4A3BB69}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="1595434"/>
+          <a:ext cx="1724400" cy="477525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1000" b="1">
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>3 - CONTAS</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1000" b="1" baseline="0">
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t> A RECEBER</a:t>
+          </a:r>
+          <a:endParaRPr lang="pt-BR" sz="1000" b="1">
+            <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>180970</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9900</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>115570</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Retângulo 5">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F2198F8-3474-48B9-B565-2FDC989454FF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="2076445"/>
+          <a:ext cx="1724400" cy="477525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1000" b="1">
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>4 - CONTAS</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1000" b="1" baseline="0">
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t> A PAGAR</a:t>
+          </a:r>
+          <a:endParaRPr lang="pt-BR" sz="1000" b="1">
+            <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>114297</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9900</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>48897</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="Retângulo 6">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{878F03AE-A789-46EC-AA83-6833121612FC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="2552697"/>
+          <a:ext cx="1724400" cy="477525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1000" b="1">
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>5 - GRÁFICOS</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -236,16 +747,80 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>146538</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>173760</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>235705</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>109439</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1485900</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>66676</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Gráfico 7" descr="Carro">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3750C2FA-9740-4ABA-A7DD-487B8DA2BF7C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId6"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect t="25000" b="26041"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="114300" y="1"/>
+          <a:ext cx="1371600" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:prstClr val="black">
+              <a:alpha val="40000"/>
+            </a:prstClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>36632</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>21979</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>125618</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -260,16 +835,15 @@
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:srcRect r="75746"/>
+        <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8550519" y="745260"/>
-          <a:ext cx="4954244" cy="2412179"/>
+          <a:off x="10265017" y="0"/>
+          <a:ext cx="1201617" cy="2412179"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -278,31 +852,25 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>217343</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>82622</xdr:rowOff>
+      <xdr:colOff>9900</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>67950</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Retângulo 1">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        <xdr:cNvPr id="5" name="Retângulo 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E0F8CC63-D523-438A-AEB7-5919DDEE26C2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F13B5A6-A27F-4F0B-91A6-57611A7A9FD4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -310,12 +878,15 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="826943" cy="463622"/>
+          <a:off x="0" y="1123950"/>
+          <a:ext cx="1724400" cy="477525"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="DBE5F1"/>
+        </a:solidFill>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="0">
@@ -335,10 +906,1427 @@
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="ctr"/>
+          <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="pt-BR" sz="1100"/>
-            <a:t>DADOS</a:t>
+            <a:rPr lang="pt-BR" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="15467A"/>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>2</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100" b="1" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="15467A"/>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t> - DADOS</a:t>
+          </a:r>
+          <a:endParaRPr lang="pt-BR" sz="1100" b="1">
+            <a:solidFill>
+              <a:srgbClr val="15467A"/>
+            </a:solidFill>
+            <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>9523</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9900</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>125098</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Retângulo 5">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D702523C-BD0A-4E54-B667-A96185BFAE39}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="638173"/>
+          <a:ext cx="1724400" cy="477525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100" b="1">
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>1 - PAINEL</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100" b="1" baseline="0">
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t> PRINCIPAL</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>71435</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9900</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>6035</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="Retângulo 6">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A568B991-AC69-46B5-89C2-222FB781B765}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="1604960"/>
+          <a:ext cx="1724400" cy="477525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1000" b="1">
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>3 - CONTAS</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1000" b="1" baseline="0">
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t> A RECEBER</a:t>
+          </a:r>
+          <a:endParaRPr lang="pt-BR" sz="1000" b="1">
+            <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>9521</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9900</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>125096</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="Retângulo 7">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{339E9D79-7FD2-48C3-9393-0E47B1A1BA83}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="2085971"/>
+          <a:ext cx="1724400" cy="477525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1000" b="1">
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>4 - CONTAS</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1000" b="1" baseline="0">
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t> A PAGAR</a:t>
+          </a:r>
+          <a:endParaRPr lang="pt-BR" sz="1000" b="1">
+            <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>123823</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9900</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>58423</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="Retângulo 8">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45A49CD5-AE40-46CD-B6F2-AA06372B8BFB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="2562223"/>
+          <a:ext cx="1724400" cy="477525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1000" b="1">
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>5 - GRÁFICOS</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9900</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>77475</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Retângulo 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{58FE8A67-B76E-4737-8554-BBA6BCE19293}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="638175"/>
+          <a:ext cx="1724400" cy="477525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="DBE5F1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="15467A"/>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>3 - CONTAS A RECEBER</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>76198</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9900</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>153673</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Retângulo 2">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A4A375F4-1985-4E62-A73B-A57EEBA93F28}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="1114423"/>
+          <a:ext cx="1724400" cy="477525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100" b="1">
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>2 - DADOS</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>157160</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9900</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>34610</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Retângulo 3">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC5158BE-2B97-4152-AEED-8B76874E78F4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="1595435"/>
+          <a:ext cx="1724400" cy="477525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1000" b="1">
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>3 - CONTAS</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1000" b="1" baseline="0">
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t> A RECEBER</a:t>
+          </a:r>
+          <a:endParaRPr lang="pt-BR" sz="1000" b="1">
+            <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>38096</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9900</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>115571</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Retângulo 4">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31895549-4EF2-4163-9D29-0FE01DE3C205}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="2076446"/>
+          <a:ext cx="1724400" cy="477525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1000" b="1">
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>4 - CONTAS</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1000" b="1" baseline="0">
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t> A PAGAR</a:t>
+          </a:r>
+          <a:endParaRPr lang="pt-BR" sz="1000" b="1">
+            <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>114298</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9900</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>191773</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Retângulo 5">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D25FB08D-4DF0-43EC-9100-AEBDD2357520}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="2552698"/>
+          <a:ext cx="1724400" cy="477525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1000" b="1">
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>5 - GRÁFICOS</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9900</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>87000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Retângulo 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F8DB4F77-3E48-4C7E-B170-F230CA2A0D9A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="647700"/>
+          <a:ext cx="1724400" cy="477525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="DBE5F1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="15467A"/>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>1 - PAINEL</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100" b="1" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="15467A"/>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t> PRINCIPAL</a:t>
+          </a:r>
+          <a:endParaRPr lang="pt-BR" sz="1100" b="1">
+            <a:solidFill>
+              <a:srgbClr val="15467A"/>
+            </a:solidFill>
+            <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>85723</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9900</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>163198</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Retângulo 2">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{494501F3-0542-4E50-9FD5-59DCC81E2F28}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="1123948"/>
+          <a:ext cx="1724400" cy="477525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100" b="1">
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>2 - DADOS</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>166685</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9900</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>44135</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Retângulo 3">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E861FB37-E42D-4BD7-8A43-6EE464421B85}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="1604960"/>
+          <a:ext cx="1724400" cy="477525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1000" b="1">
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>3 - CONTAS</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1000" b="1" baseline="0">
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t> A RECEBER</a:t>
+          </a:r>
+          <a:endParaRPr lang="pt-BR" sz="1000" b="1">
+            <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>47621</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9900</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>125096</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Retângulo 4">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C4E4DDDA-0D92-4CF2-A4D9-3E592CAFFE1F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="2085971"/>
+          <a:ext cx="1724400" cy="477525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1000" b="1">
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>4 - CONTAS</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1000" b="1" baseline="0">
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t> A PAGAR</a:t>
+          </a:r>
+          <a:endParaRPr lang="pt-BR" sz="1000" b="1">
+            <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>123823</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9900</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>1273</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Retângulo 5">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09D91DB2-FC10-4B13-9B9B-2099B52B987E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="2562223"/>
+          <a:ext cx="1724400" cy="477525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1000" b="1">
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>5 - GRÁFICOS</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9900</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>115574</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Retângulo 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{57211213-62DB-49EC-A7F4-391DA7D94177}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="447674"/>
+          <a:ext cx="1724400" cy="477525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="DBE5F1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="15467A"/>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>1 - PAINEL</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100" b="1" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="15467A"/>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t> PRINCIPAL</a:t>
+          </a:r>
+          <a:endParaRPr lang="pt-BR" sz="1100" b="1">
+            <a:solidFill>
+              <a:srgbClr val="15467A"/>
+            </a:solidFill>
+            <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>114297</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9900</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>48897</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Retângulo 2">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B29C54C-0C07-46F2-9D06-830BC0EA86A0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="923922"/>
+          <a:ext cx="1724400" cy="477525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100" b="1">
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>2 - DADOS</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>52384</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9900</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>167959</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Retângulo 3">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E22B29F-6012-487D-9010-D06B36A13FCA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="1404934"/>
+          <a:ext cx="1724400" cy="477525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1000" b="1">
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>3 - CONTAS</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1000" b="1" baseline="0">
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t> A RECEBER</a:t>
+          </a:r>
+          <a:endParaRPr lang="pt-BR" sz="1000" b="1">
+            <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>171445</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9900</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>106045</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Retângulo 4">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7EB23CB1-522F-49D0-8E2E-3F3E34584973}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="1885945"/>
+          <a:ext cx="1724400" cy="477525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1000" b="1">
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>4 - CONTAS</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1000" b="1" baseline="0">
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t> A PAGAR</a:t>
+          </a:r>
+          <a:endParaRPr lang="pt-BR" sz="1000" b="1">
+            <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>104772</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9900</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>39372</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Retângulo 5">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B774500A-FB23-4B87-8C19-3A600AD14A3D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="2362197"/>
+          <a:ext cx="1724400" cy="477525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1000" b="1">
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>5 - GRÁFICOS</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -612,153 +2600,1639 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
-    <tabColor theme="7"/>
+    <tabColor rgb="FF4F81BD"/>
   </sheetPr>
-  <dimension ref="C2:F17"/>
+  <dimension ref="C1:M20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="6.42578125" customWidth="1"/>
-    <col min="3" max="3" width="27.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.140625" customWidth="1"/>
+    <col min="1" max="1" width="25.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="1.7109375" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-    </row>
-    <row r="3" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="D9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="D10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="D11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="D12" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="D13" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="D14" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="D15" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="D16" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="17" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D17" t="s">
-        <v>20</v>
-      </c>
+    <row r="1" spans="3:13" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="3:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="C2" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+    </row>
+    <row r="3" spans="3:13" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="4" spans="3:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="C4" s="7"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+    </row>
+    <row r="5" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
+    </row>
+    <row r="6" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
+    </row>
+    <row r="7" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
+    </row>
+    <row r="8" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="9"/>
+    </row>
+    <row r="9" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
+    </row>
+    <row r="10" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="9"/>
+    </row>
+    <row r="11" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="9"/>
+      <c r="M11" s="9"/>
+    </row>
+    <row r="12" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
+    </row>
+    <row r="13" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="9"/>
+    </row>
+    <row r="14" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="9"/>
+    </row>
+    <row r="15" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="9"/>
+      <c r="M15" s="9"/>
+    </row>
+    <row r="16" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="9"/>
+      <c r="M16" s="9"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c r="L17" s="9"/>
+      <c r="M17" s="9"/>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c r="L18" s="9"/>
+      <c r="M18" s="9"/>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c r="L19" s="9"/>
+      <c r="M19" s="9"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c r="L20" s="9"/>
+      <c r="M20" s="9"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <mergeCells count="2">
+    <mergeCell ref="C2:M2"/>
+    <mergeCell ref="C4:M4"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <sheetPr>
+    <tabColor theme="7"/>
+  </sheetPr>
+  <dimension ref="C1:M19"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="25.7109375" style="10" customWidth="1"/>
+    <col min="2" max="2" width="1.7109375" style="10" customWidth="1"/>
+    <col min="3" max="3" width="34.42578125" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="1.7109375" style="10" customWidth="1"/>
+    <col min="5" max="5" width="36.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="1.7109375" style="10" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" style="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="1.7109375" style="10" customWidth="1"/>
+    <col min="9" max="9" width="23.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="1.7109375" style="10" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="10"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="3:13" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="3:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="C2" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+    </row>
+    <row r="3" spans="3:13" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="4" spans="3:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="C4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C5" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="I5" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="K5" s="10" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C6" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="I6" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="K6" s="10" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C7" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="I7" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="K7" s="10" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C8" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="I8" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="K8" s="10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C9" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="I9" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="K9" s="10" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C10" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="K10" s="10" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="E11" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="K11" s="10" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="12" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="E12" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="K12" s="10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="13" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="E13" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="E14" s="10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="E15" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="E16" s="10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E17" s="10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E18" s="10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E19" s="10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C2:M2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
-    <tabColor rgb="FF4F81BD"/>
+    <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="C1:N30"/>
   <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomRight" activeCell="A17" sqref="A17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="25.7109375" customWidth="1"/>
+    <col min="2" max="2" width="1.7109375" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.5703125" customWidth="1"/>
+    <col min="6" max="6" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="32.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="3:14" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C2" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+    </row>
+    <row r="3" spans="3:14" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C4" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="M4" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="N4" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
+    </row>
+    <row r="6" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
+    </row>
+    <row r="7" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+    </row>
+    <row r="8" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+    </row>
+    <row r="9" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="6"/>
+    </row>
+    <row r="10" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="6"/>
+      <c r="N10" s="6"/>
+    </row>
+    <row r="11" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="6"/>
+      <c r="N11" s="6"/>
+    </row>
+    <row r="12" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="6"/>
+    </row>
+    <row r="13" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="6"/>
+    </row>
+    <row r="14" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="6"/>
+    </row>
+    <row r="15" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="6"/>
+    </row>
+    <row r="16" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="6"/>
+      <c r="N16" s="6"/>
+    </row>
+    <row r="17" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="6"/>
+      <c r="N17" s="6"/>
+    </row>
+    <row r="18" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="6"/>
+      <c r="N18" s="6"/>
+    </row>
+    <row r="19" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6"/>
+      <c r="M19" s="6"/>
+      <c r="N19" s="6"/>
+    </row>
+    <row r="20" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="6"/>
+      <c r="M20" s="6"/>
+      <c r="N20" s="6"/>
+    </row>
+    <row r="21" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="6"/>
+      <c r="M21" s="6"/>
+      <c r="N21" s="6"/>
+    </row>
+    <row r="22" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="6"/>
+      <c r="L22" s="6"/>
+      <c r="M22" s="6"/>
+      <c r="N22" s="6"/>
+    </row>
+    <row r="23" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="6"/>
+      <c r="K23" s="6"/>
+      <c r="L23" s="6"/>
+      <c r="M23" s="6"/>
+      <c r="N23" s="6"/>
+    </row>
+    <row r="24" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="6"/>
+      <c r="K24" s="6"/>
+      <c r="L24" s="6"/>
+      <c r="M24" s="6"/>
+      <c r="N24" s="6"/>
+    </row>
+    <row r="25" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="6"/>
+      <c r="K25" s="6"/>
+      <c r="L25" s="6"/>
+      <c r="M25" s="6"/>
+      <c r="N25" s="6"/>
+    </row>
+    <row r="26" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="6"/>
+      <c r="J26" s="6"/>
+      <c r="K26" s="6"/>
+      <c r="L26" s="6"/>
+      <c r="M26" s="6"/>
+      <c r="N26" s="6"/>
+    </row>
+    <row r="27" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="6"/>
+      <c r="J27" s="6"/>
+      <c r="K27" s="6"/>
+      <c r="L27" s="6"/>
+      <c r="M27" s="6"/>
+      <c r="N27" s="6"/>
+    </row>
+    <row r="28" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
+      <c r="I28" s="6"/>
+      <c r="J28" s="6"/>
+      <c r="K28" s="6"/>
+      <c r="L28" s="6"/>
+      <c r="M28" s="6"/>
+      <c r="N28" s="6"/>
+    </row>
+    <row r="29" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
+      <c r="I29" s="6"/>
+      <c r="J29" s="6"/>
+      <c r="K29" s="6"/>
+      <c r="L29" s="6"/>
+      <c r="M29" s="6"/>
+      <c r="N29" s="6"/>
+    </row>
+    <row r="30" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="6"/>
+      <c r="J30" s="6"/>
+      <c r="K30" s="6"/>
+      <c r="L30" s="6"/>
+      <c r="M30" s="6"/>
+      <c r="N30" s="6"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C2:N2"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
+  <dimension ref="C1:M30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L7" sqref="L7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="25.7109375" customWidth="1"/>
+    <col min="2" max="2" width="1.7109375" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.5703125" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="3:13" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C2" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+    </row>
+    <row r="3" spans="3:13" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="3:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C4" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="M4" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="3:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+    </row>
+    <row r="6" spans="3:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+    </row>
+    <row r="7" spans="3:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+    </row>
+    <row r="8" spans="3:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+    </row>
+    <row r="9" spans="3:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
+    </row>
+    <row r="10" spans="3:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="6"/>
+    </row>
+    <row r="11" spans="3:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="6"/>
+    </row>
+    <row r="12" spans="3:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
+    </row>
+    <row r="13" spans="3:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
+    </row>
+    <row r="14" spans="3:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="6"/>
+    </row>
+    <row r="15" spans="3:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6"/>
+    </row>
+    <row r="16" spans="3:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="6"/>
+    </row>
+    <row r="17" spans="3:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="6"/>
+    </row>
+    <row r="18" spans="3:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="6"/>
+    </row>
+    <row r="19" spans="3:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6"/>
+      <c r="M19" s="6"/>
+    </row>
+    <row r="20" spans="3:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="6"/>
+      <c r="M20" s="6"/>
+    </row>
+    <row r="21" spans="3:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="6"/>
+      <c r="M21" s="6"/>
+    </row>
+    <row r="22" spans="3:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="6"/>
+      <c r="L22" s="6"/>
+      <c r="M22" s="6"/>
+    </row>
+    <row r="23" spans="3:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="6"/>
+      <c r="K23" s="6"/>
+      <c r="L23" s="6"/>
+      <c r="M23" s="6"/>
+    </row>
+    <row r="24" spans="3:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="6"/>
+      <c r="K24" s="6"/>
+      <c r="L24" s="6"/>
+      <c r="M24" s="6"/>
+    </row>
+    <row r="25" spans="3:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="6"/>
+      <c r="K25" s="6"/>
+      <c r="L25" s="6"/>
+      <c r="M25" s="6"/>
+    </row>
+    <row r="26" spans="3:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="6"/>
+      <c r="J26" s="6"/>
+      <c r="K26" s="6"/>
+      <c r="L26" s="6"/>
+      <c r="M26" s="6"/>
+    </row>
+    <row r="27" spans="3:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="6"/>
+      <c r="J27" s="6"/>
+      <c r="K27" s="6"/>
+      <c r="L27" s="6"/>
+      <c r="M27" s="6"/>
+    </row>
+    <row r="28" spans="3:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
+      <c r="I28" s="6"/>
+      <c r="J28" s="6"/>
+      <c r="K28" s="6"/>
+      <c r="L28" s="6"/>
+      <c r="M28" s="6"/>
+    </row>
+    <row r="29" spans="3:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
+      <c r="I29" s="6"/>
+      <c r="J29" s="6"/>
+      <c r="K29" s="6"/>
+      <c r="L29" s="6"/>
+      <c r="M29" s="6"/>
+    </row>
+    <row r="30" spans="3:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="6"/>
+      <c r="J30" s="6"/>
+      <c r="K30" s="6"/>
+      <c r="L30" s="6"/>
+      <c r="M30" s="6"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C2:M2"/>
+  </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF4F81BD"/>
+  </sheetPr>
+  <dimension ref="C1:M20"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="25.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="1.7109375" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="3:13" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="3:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="C2" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+    </row>
+    <row r="3" spans="3:13" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="4" spans="3:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="C4" s="7"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+    </row>
+    <row r="5" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
+    </row>
+    <row r="6" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
+    </row>
+    <row r="7" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
+    </row>
+    <row r="8" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="9"/>
+    </row>
+    <row r="9" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
+    </row>
+    <row r="10" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="9"/>
+    </row>
+    <row r="11" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="9"/>
+      <c r="M11" s="9"/>
+    </row>
+    <row r="12" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
+    </row>
+    <row r="13" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="9"/>
+    </row>
+    <row r="14" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="9"/>
+    </row>
+    <row r="15" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="9"/>
+      <c r="M15" s="9"/>
+    </row>
+    <row r="16" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="9"/>
+      <c r="M16" s="9"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c r="L17" s="9"/>
+      <c r="M17" s="9"/>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c r="L18" s="9"/>
+      <c r="M18" s="9"/>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c r="L19" s="9"/>
+      <c r="M19" s="9"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c r="L20" s="9"/>
+      <c r="M20" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C2:M2"/>
+    <mergeCell ref="C4:M4"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>